--- a/файлы/ведомость финал.xlsx
+++ b/файлы/ведомость финал.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\MSProject_auto\файлы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\MSProject\файлы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F096343-A8AB-44E9-8FFB-A56195005C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9698516A-E6CC-4753-8B90-514B17E6087E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{02CA0E13-B26E-4D07-B08E-2515C6469ED3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" xr2:uid="{02CA0E13-B26E-4D07-B08E-2515C6469ED3}"/>
   </bookViews>
   <sheets>
     <sheet name="ВОР" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="181">
   <si>
     <t>№</t>
   </si>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>2 захватка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07-01-001-07 </t>
   </si>
   <si>
     <t xml:space="preserve">07-01-006-02 </t>
@@ -610,10 +607,16 @@
     <t>Подготовительные работы</t>
   </si>
   <si>
-    <t>01-02-027-03</t>
-  </si>
-  <si>
     <t>01-01-007-03</t>
+  </si>
+  <si>
+    <t>гэсн 01-02-027-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гЭсн 07-05-023-06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГЭСН 07-01-001-07 </t>
   </si>
 </sst>
 </file>
@@ -1706,21 +1709,21 @@
   <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="63.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
@@ -1762,10 +1765,10 @@
         <v>11</v>
       </c>
       <c r="Q1" s="67" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="71"/>
       <c r="B2" s="72"/>
       <c r="C2" s="1" t="s">
@@ -1798,7 +1801,7 @@
       <c r="P2" s="68"/>
       <c r="Q2" s="67"/>
     </row>
-    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1851,7 +1854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -1859,7 +1862,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5">
         <f>693/1000</f>
@@ -1876,7 +1879,7 @@
         <v>1.03257</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I5" s="10">
         <v>0.98</v>
@@ -1907,10 +1910,10 @@
         <v>1</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -1918,14 +1921,14 @@
         <v>21</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6">
         <f>693*0.02/1000</f>
         <v>1.3859999999999999E-2</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F6" s="8">
         <v>40.71</v>
@@ -1935,7 +1938,7 @@
         <v>0.56424059999999998</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I6" s="8">
         <v>40.71</v>
@@ -1966,10 +1969,10 @@
         <v>1</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -1977,14 +1980,14 @@
         <v>22</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7">
         <f>D5/4</f>
         <v>0.17324999999999999</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="F7" s="8">
         <v>308.58</v>
@@ -1994,7 +1997,7 @@
         <v>53.461484999999996</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I7" s="11">
         <v>85.56</v>
@@ -2025,10 +2028,10 @@
         <v>7</v>
       </c>
       <c r="Q7" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -2040,7 +2043,7 @@
       <c r="I8" s="16"/>
       <c r="Q8" s="13"/>
     </row>
-    <row r="9" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -2048,14 +2051,14 @@
         <v>23</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9">
         <f>D6</f>
         <v>1.3859999999999999E-2</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="8">
         <v>404.04</v>
@@ -2065,7 +2068,7 @@
         <v>5.5999943999999999</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9" s="8">
         <v>76.28</v>
@@ -2096,10 +2099,10 @@
         <v>1</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -2107,14 +2110,14 @@
         <v>24</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10">
         <f>353.16/15/100</f>
         <v>0.23544000000000001</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="F10" s="8">
         <v>1254.3399999999999</v>
@@ -2124,7 +2127,7 @@
         <v>295.32180959999999</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10" s="8">
         <v>167.36</v>
@@ -2155,10 +2158,10 @@
         <v>8</v>
       </c>
       <c r="Q10" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -2166,14 +2169,14 @@
         <v>25</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11">
         <f>43/100</f>
         <v>0.43</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="8">
         <v>1254.3</v>
@@ -2183,7 +2186,7 @@
         <v>539.34899999999993</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I11" s="8">
         <v>176.65</v>
@@ -2214,10 +2217,10 @@
         <v>7</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -2225,14 +2228,14 @@
         <v>26</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12">
         <f>353.16*3/7/100</f>
         <v>1.5135428571428571</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="8">
         <v>223.11</v>
@@ -2242,7 +2245,7 @@
         <v>337.68654685714284</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I12" s="10">
         <v>31.98</v>
@@ -2273,10 +2276,10 @@
         <v>7</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -2284,14 +2287,14 @@
         <v>27</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13">
         <f>43/100</f>
         <v>0.43</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="8">
         <v>186.48</v>
@@ -2301,7 +2304,7 @@
         <v>80.186399999999992</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I13" s="10">
         <v>44.82</v>
@@ -2332,10 +2335,10 @@
         <v>3</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -2343,34 +2346,34 @@
         <v>28</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14">
-        <f>3*27*2/1000</f>
-        <v>0.16200000000000001</v>
+        <f>3*27*2/100</f>
+        <v>1.62</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" s="8">
         <v>96.83</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>15.68646</v>
+        <v>156.8646</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I14" s="8">
         <v>2.14</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>0.34668000000000004</v>
+        <v>3.4668000000000005</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -2384,17 +2387,17 @@
       </c>
       <c r="O14">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P14">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q14" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -2402,14 +2405,14 @@
         <v>29</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15">
         <f>31*2/100</f>
         <v>0.62</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" s="8">
         <v>112.69</v>
@@ -2419,13 +2422,13 @@
         <v>69.867800000000003</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I15" s="8">
         <v>43.17</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
+        <f>I15*D15</f>
         <v>26.7654</v>
       </c>
       <c r="K15" s="15">
@@ -2450,10 +2453,10 @@
         <v>4</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -2461,34 +2464,34 @@
         <v>30</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16">
-        <f>353.16/1000</f>
-        <v>0.35316000000000003</v>
+        <f>353.16/100</f>
+        <v>3.5316000000000001</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" s="8">
         <v>29.72</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>10.495915200000001</v>
+        <v>104.959152</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I16" s="8">
         <v>10.29</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>3.6340164000000001</v>
+        <v>36.340163999999994</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -2498,21 +2501,21 @@
       </c>
       <c r="N16">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O16">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P16">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q16" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>12</v>
       </c>
@@ -2520,14 +2523,14 @@
         <v>31</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17">
         <f>2/100</f>
         <v>0.02</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" s="8">
         <v>2412.6</v>
@@ -2537,7 +2540,7 @@
         <v>48.252000000000002</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I17" s="10">
         <v>78</v>
@@ -2568,10 +2571,10 @@
         <v>3</v>
       </c>
       <c r="Q17" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>13</v>
       </c>
@@ -2579,31 +2582,31 @@
         <v>32</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18">
-        <f>353.16*2/0.1/1000</f>
-        <v>7.0632000000000001</v>
+        <f>353.16/100</f>
+        <v>3.5316000000000001</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="8">
         <v>30.3</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>214.01496</v>
+        <v>107.00748</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I18" s="8">
         <v>11.02</v>
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>77.836463999999992</v>
+        <v>38.918231999999996</v>
       </c>
       <c r="K18">
         <v>5</v>
@@ -2616,21 +2619,21 @@
       </c>
       <c r="N18">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O18">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P18">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q18" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>14</v>
       </c>
@@ -2638,34 +2641,34 @@
         <v>33</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19">
-        <f>353.16/1000</f>
-        <v>0.35316000000000003</v>
+        <f>353.16/100</f>
+        <v>3.5316000000000001</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="8">
         <v>42.4</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>14.973984000000002</v>
+        <v>149.73983999999999</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I19" s="8">
         <v>0.5</v>
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>0.17658000000000001</v>
+        <v>1.7658</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -2679,17 +2682,17 @@
       </c>
       <c r="O19">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P19">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q19" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -2697,34 +2700,34 @@
         <v>34</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20">
-        <f>353.16/2/1000</f>
-        <v>0.17658000000000001</v>
+        <f>353.16/2/100</f>
+        <v>1.7658</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" s="8">
         <v>119.78</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>21.150752400000002</v>
+        <v>211.50752400000002</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I20" s="10">
         <v>0.36</v>
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>6.3568800000000009E-2</v>
+        <v>0.63568800000000003</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -2738,17 +2741,17 @@
       </c>
       <c r="O20">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P20">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q20" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>16</v>
       </c>
@@ -2756,34 +2759,34 @@
         <v>35</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21">
-        <f>20*2.5*3/1000</f>
-        <v>0.15</v>
+        <f>20*2.5*3/100</f>
+        <v>1.5</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="8">
         <v>188.6</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>28.29</v>
+        <v>282.89999999999998</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" s="8">
         <v>10.17</v>
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
-        <v>1.5254999999999999</v>
+        <v>15.254999999999999</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -2793,21 +2796,21 @@
       </c>
       <c r="N21">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O21">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P21">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q21" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>17</v>
       </c>
@@ -2815,34 +2818,34 @@
         <v>36</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22">
-        <f>36*5/1000</f>
-        <v>0.18</v>
+        <f>36*5/100</f>
+        <v>1.8</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="8">
         <v>73.14</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>13.1652</v>
+        <v>131.65200000000002</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I22" s="8">
         <v>2.06</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>0.37080000000000002</v>
+        <v>3.7080000000000002</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -2856,17 +2859,17 @@
       </c>
       <c r="O22">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P22">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q22" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>18</v>
       </c>
@@ -2874,31 +2877,31 @@
         <v>37</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23">
-        <f>80/1000</f>
-        <v>0.08</v>
+        <f>80/100</f>
+        <v>0.8</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F23" s="8">
         <v>66.22</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>5.2976000000000001</v>
+        <v>52.975999999999999</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I23" s="8">
         <v>1</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -2915,22 +2918,22 @@
       </c>
       <c r="O23">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P23">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q23" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>19</v>
       </c>
@@ -2938,14 +2941,14 @@
         <v>23</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25">
         <f>D28/4</f>
         <v>0.24274285714285715</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" s="8">
         <v>404.04</v>
@@ -2955,7 +2958,7 @@
         <v>98.077824000000007</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I25" s="8">
         <v>76.28</v>
@@ -2986,10 +2989,10 @@
         <v>7</v>
       </c>
       <c r="Q25" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>20</v>
       </c>
@@ -2997,34 +3000,34 @@
         <v>24</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D26">
-        <f>339.84/15/1000</f>
-        <v>2.2655999999999999E-2</v>
+        <f>339.84/15/100</f>
+        <v>0.22655999999999998</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F26" s="8">
         <v>1254.3399999999999</v>
       </c>
       <c r="G26">
         <f t="shared" si="5"/>
-        <v>28.418327039999998</v>
+        <v>284.18327039999997</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I26" s="8">
         <v>167.36</v>
       </c>
       <c r="J26">
         <f t="shared" si="6"/>
-        <v>3.7917081600000002</v>
+        <v>37.917081600000003</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -3034,21 +3037,21 @@
       </c>
       <c r="N26">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O26">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P26">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q26" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>21</v>
       </c>
@@ -3056,14 +3059,14 @@
         <v>25</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D27">
         <f>34/100</f>
         <v>0.34</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F27" s="8">
         <v>1254.3</v>
@@ -3073,7 +3076,7 @@
         <v>426.46199999999999</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="8">
         <v>176.65</v>
@@ -3104,10 +3107,10 @@
         <v>8</v>
       </c>
       <c r="Q27" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>22</v>
       </c>
@@ -3115,14 +3118,14 @@
         <v>26</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28">
         <f>339.84*2/7/100</f>
         <v>0.9709714285714286</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F28" s="8">
         <v>223.11</v>
@@ -3132,7 +3135,7 @@
         <v>216.63343542857146</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I28" s="10">
         <v>31.98</v>
@@ -3163,10 +3166,10 @@
         <v>6</v>
       </c>
       <c r="Q28" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>23</v>
       </c>
@@ -3174,14 +3177,14 @@
         <v>27</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29">
         <f>21/100</f>
         <v>0.21</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" s="8">
         <v>186.48</v>
@@ -3191,7 +3194,7 @@
         <v>39.160799999999995</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I29" s="10">
         <v>44.82</v>
@@ -3222,10 +3225,10 @@
         <v>5</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>24</v>
       </c>
@@ -3233,34 +3236,34 @@
         <v>28</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30">
-        <f>3*25/1000</f>
-        <v>7.4999999999999997E-2</v>
+        <f>3*25/100</f>
+        <v>0.75</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" s="8">
         <v>96.83</v>
       </c>
       <c r="G30">
         <f t="shared" si="5"/>
-        <v>7.2622499999999999</v>
+        <v>72.622500000000002</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I30" s="8">
         <v>2.14</v>
       </c>
       <c r="J30">
         <f t="shared" si="6"/>
-        <v>0.1605</v>
+        <v>1.605</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -3274,17 +3277,17 @@
       </c>
       <c r="O30">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P30">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q30" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>25</v>
       </c>
@@ -3292,14 +3295,14 @@
         <v>29</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D31">
         <f>30/100</f>
         <v>0.3</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31" s="8">
         <v>112.69</v>
@@ -3309,7 +3312,7 @@
         <v>33.806999999999995</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="8">
         <v>43.17</v>
@@ -3340,10 +3343,10 @@
         <v>5</v>
       </c>
       <c r="Q31" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>26</v>
       </c>
@@ -3351,34 +3354,34 @@
         <v>30</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D32">
-        <f>339.84/1000</f>
-        <v>0.33983999999999998</v>
+        <f>339.84/100</f>
+        <v>3.3983999999999996</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F32" s="8">
         <v>29.72</v>
       </c>
       <c r="G32">
         <f t="shared" si="5"/>
-        <v>10.100044799999999</v>
+        <v>101.00044799999999</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="8">
         <v>10.29</v>
       </c>
       <c r="J32">
         <f t="shared" si="6"/>
-        <v>3.4969535999999994</v>
+        <v>34.969535999999991</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -3388,21 +3391,21 @@
       </c>
       <c r="N32">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O32">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P32">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q32" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>27</v>
       </c>
@@ -3410,14 +3413,14 @@
         <v>32</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33">
-        <f>339.84/0.1/1000</f>
+        <f>339.84/100</f>
         <v>3.3983999999999996</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" s="8">
         <v>30.3</v>
@@ -3427,7 +3430,7 @@
         <v>102.97152</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I33" s="8">
         <v>11.02</v>
@@ -3458,10 +3461,10 @@
         <v>5</v>
       </c>
       <c r="Q33" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>28</v>
       </c>
@@ -3469,34 +3472,34 @@
         <v>33</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D34">
-        <f>339.84/1000</f>
-        <v>0.33983999999999998</v>
+        <f>339.84/100</f>
+        <v>3.3983999999999996</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F34" s="8">
         <v>42.4</v>
       </c>
       <c r="G34">
         <f t="shared" si="10"/>
-        <v>14.409215999999999</v>
+        <v>144.09215999999998</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I34" s="8">
         <v>0.5</v>
       </c>
       <c r="J34">
         <f t="shared" si="11"/>
-        <v>0.16991999999999999</v>
+        <v>1.6991999999999998</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -3510,17 +3513,17 @@
       </c>
       <c r="O34">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P34">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q34" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>29</v>
       </c>
@@ -3528,40 +3531,40 @@
         <v>34</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D35">
-        <f>339.84/1000</f>
-        <v>0.33983999999999998</v>
+        <f>339.84/100</f>
+        <v>3.3983999999999996</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F35" s="8">
         <v>119.78</v>
       </c>
       <c r="G35">
         <f t="shared" si="10"/>
-        <v>40.706035199999995</v>
+        <v>407.06035199999997</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I35" s="10">
         <v>0.36</v>
       </c>
       <c r="J35">
         <f t="shared" si="11"/>
-        <v>0.12234239999999999</v>
+        <v>1.2234239999999998</v>
       </c>
       <c r="K35" s="15">
+        <v>4</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
         <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
       </c>
       <c r="N35">
         <f t="shared" si="12"/>
@@ -3569,17 +3572,17 @@
       </c>
       <c r="O35">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P35">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q35" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>30</v>
       </c>
@@ -3587,34 +3590,34 @@
         <v>35</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D36">
-        <f>10*2.5*3/1000</f>
-        <v>7.4999999999999997E-2</v>
+        <f>10*2.5*3/100</f>
+        <v>0.75</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F36" s="8">
         <v>188.6</v>
       </c>
       <c r="G36">
         <f t="shared" si="10"/>
-        <v>14.145</v>
+        <v>141.44999999999999</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I36" s="8">
         <v>10.17</v>
       </c>
       <c r="J36">
         <f t="shared" si="11"/>
-        <v>0.76274999999999993</v>
+        <v>7.6274999999999995</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -3628,17 +3631,17 @@
       </c>
       <c r="O36">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P36">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q36" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>31</v>
       </c>
@@ -3646,34 +3649,34 @@
         <v>36</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37">
-        <f>18*5/1000</f>
-        <v>0.09</v>
+        <f>18*5/100</f>
+        <v>0.9</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F37" s="8">
         <v>73.14</v>
       </c>
       <c r="G37">
         <f t="shared" si="10"/>
-        <v>6.5826000000000002</v>
+        <v>65.826000000000008</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I37" s="8">
         <v>2.06</v>
       </c>
       <c r="J37">
         <f t="shared" si="11"/>
-        <v>0.18540000000000001</v>
+        <v>1.8540000000000001</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -3687,17 +3690,17 @@
       </c>
       <c r="O37">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P37">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q37" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>32</v>
       </c>
@@ -3705,31 +3708,31 @@
         <v>37</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D38">
-        <f>10/1000</f>
-        <v>0.01</v>
+        <f>10/100</f>
+        <v>0.1</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F38" s="8">
         <v>66.22</v>
       </c>
       <c r="G38">
         <f t="shared" si="10"/>
-        <v>0.66220000000000001</v>
+        <v>6.6219999999999999</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I38" s="8">
         <v>1</v>
       </c>
       <c r="J38">
         <f t="shared" si="11"/>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -3753,16 +3756,16 @@
         <v>1</v>
       </c>
       <c r="Q38" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P40">
         <f>SUM(P5:P38)</f>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="78" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>0</v>
       </c>
@@ -3774,7 +3777,7 @@
       </c>
       <c r="D41" s="66"/>
       <c r="E41" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F41" s="18" t="s">
         <v>7</v>
@@ -3783,26 +3786,26 @@
         <v>8</v>
       </c>
       <c r="H41" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I41" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="I41" s="19" t="s">
+      <c r="J41" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="J41" s="19" t="s">
+      <c r="K41" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="K41" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="21"/>
       <c r="B42" s="22"/>
       <c r="C42" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="23" t="s">
         <v>82</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>83</v>
       </c>
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
@@ -3812,7 +3815,7 @@
       <c r="J42" s="22"/>
       <c r="K42" s="24"/>
     </row>
-    <row r="43" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="25">
         <v>1</v>
       </c>
@@ -3847,55 +3850,55 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="29">
         <v>1</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C44" s="31">
         <f>ROUNDUP(SUM(G5:G38)*K44,0)</f>
-        <v>2794</v>
+        <v>4769</v>
       </c>
       <c r="D44" s="32">
         <f>ROUNDUP(SUM(J5:J38)*K44,0)</f>
-        <v>491</v>
+        <v>586</v>
       </c>
       <c r="E44" s="31">
         <v>1</v>
       </c>
       <c r="F44" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G44" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H44" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I44" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J44" s="31"/>
       <c r="K44" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="33">
         <v>2</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45" s="31">
         <f>$C$44*K45</f>
-        <v>223.52</v>
+        <v>381.52</v>
       </c>
       <c r="D45" s="32">
         <f>$D$44*K45</f>
-        <v>39.28</v>
+        <v>46.88</v>
       </c>
       <c r="E45" s="35">
         <v>2</v>
@@ -3912,30 +3915,30 @@
       </c>
       <c r="I45" s="36">
         <f t="shared" ref="I45:I54" si="15">ROUNDUP(C45/(E45*G45*8),0)</f>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J45" s="36">
         <f>MAX(I45,H45)</f>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K45" s="35">
         <v>0.08</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="33">
         <v>3</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C46" s="31">
         <f t="shared" ref="C46:C54" si="16">$C$44*K46</f>
-        <v>139.70000000000002</v>
+        <v>238.45000000000002</v>
       </c>
       <c r="D46" s="32">
         <f t="shared" ref="D46:D54" si="17">$D$44*K46</f>
-        <v>24.55</v>
+        <v>29.3</v>
       </c>
       <c r="E46" s="35">
         <v>1</v>
@@ -3952,30 +3955,30 @@
       </c>
       <c r="I46" s="36">
         <f t="shared" si="15"/>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J46" s="36">
         <f t="shared" ref="J46:J54" si="19">MAX(I46,H46)</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K46" s="35">
         <v>0.05</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="33">
         <v>4</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C47" s="31">
         <f t="shared" si="16"/>
-        <v>195.58</v>
+        <v>333.83000000000004</v>
       </c>
       <c r="D47" s="32">
         <f t="shared" si="17"/>
-        <v>34.370000000000005</v>
+        <v>41.02</v>
       </c>
       <c r="E47" s="35">
         <v>2</v>
@@ -3992,30 +3995,30 @@
       </c>
       <c r="I47" s="36">
         <f t="shared" si="15"/>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J47" s="36">
         <f t="shared" si="19"/>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K47" s="35">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="33">
         <v>5</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C48" s="31">
         <f t="shared" si="16"/>
-        <v>111.76</v>
+        <v>190.76</v>
       </c>
       <c r="D48" s="32">
         <f t="shared" si="17"/>
-        <v>19.64</v>
+        <v>23.44</v>
       </c>
       <c r="E48" s="35">
         <v>1</v>
@@ -4032,30 +4035,30 @@
       </c>
       <c r="I48" s="36">
         <f t="shared" si="15"/>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J48" s="36">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K48" s="35">
         <v>0.04</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="33">
         <v>6</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C49" s="31">
         <f t="shared" si="16"/>
-        <v>167.64</v>
+        <v>286.14</v>
       </c>
       <c r="D49" s="32">
         <f t="shared" si="17"/>
-        <v>29.459999999999997</v>
+        <v>35.159999999999997</v>
       </c>
       <c r="E49" s="35">
         <v>2</v>
@@ -4072,30 +4075,30 @@
       </c>
       <c r="I49" s="36">
         <f t="shared" si="15"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J49" s="36">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K49" s="35">
         <v>0.06</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="33">
         <v>7</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C50" s="31">
         <f t="shared" si="16"/>
-        <v>167.64</v>
+        <v>286.14</v>
       </c>
       <c r="D50" s="32">
         <f t="shared" si="17"/>
-        <v>29.459999999999997</v>
+        <v>35.159999999999997</v>
       </c>
       <c r="E50" s="35">
         <v>2</v>
@@ -4112,30 +4115,30 @@
       </c>
       <c r="I50" s="36">
         <f t="shared" si="15"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J50" s="36">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K50" s="35">
         <v>0.06</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="33">
         <v>8</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="31">
         <f t="shared" si="16"/>
-        <v>13.97</v>
+        <v>23.844999999999999</v>
       </c>
       <c r="D51" s="32">
         <f t="shared" si="17"/>
-        <v>2.4550000000000001</v>
+        <v>2.93</v>
       </c>
       <c r="E51" s="35">
         <v>1</v>
@@ -4152,30 +4155,30 @@
       </c>
       <c r="I51" s="36">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J51" s="36">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K51" s="35">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="33">
         <v>9</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C52" s="31">
         <f t="shared" si="16"/>
-        <v>223.52</v>
+        <v>381.52</v>
       </c>
       <c r="D52" s="32">
         <f t="shared" si="17"/>
-        <v>39.28</v>
+        <v>46.88</v>
       </c>
       <c r="E52" s="35">
         <v>2</v>
@@ -4192,30 +4195,30 @@
       </c>
       <c r="I52" s="36">
         <f t="shared" si="15"/>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J52" s="36">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K52" s="35">
         <v>0.08</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="33">
         <v>10</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C53" s="31">
         <f t="shared" si="16"/>
-        <v>195.58</v>
+        <v>333.83000000000004</v>
       </c>
       <c r="D53" s="32">
         <f t="shared" si="17"/>
-        <v>34.370000000000005</v>
+        <v>41.02</v>
       </c>
       <c r="E53" s="35">
         <v>2</v>
@@ -4228,34 +4231,34 @@
       </c>
       <c r="H53" s="34">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" s="36">
         <f t="shared" si="15"/>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J53" s="36">
         <f t="shared" si="19"/>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K53" s="35">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="33">
         <v>11</v>
       </c>
       <c r="B54" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C54" s="31">
         <f t="shared" si="16"/>
-        <v>83.82</v>
+        <v>143.07</v>
       </c>
       <c r="D54" s="32">
         <f t="shared" si="17"/>
-        <v>14.729999999999999</v>
+        <v>17.579999999999998</v>
       </c>
       <c r="E54" s="35">
         <v>1</v>
@@ -4268,36 +4271,36 @@
       </c>
       <c r="H54" s="34">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" s="36">
         <f t="shared" si="15"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J54" s="36">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K54" s="35">
         <v>0.03</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H56" s="37"/>
       <c r="J56" s="38">
         <f>SUM(J45:J54)</f>
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="L56" s="38">
         <f>SUM(J56,P40)</f>
-        <v>236</v>
+        <v>356</v>
       </c>
       <c r="N56">
         <f>L56/30</f>
-        <v>7.8666666666666663</v>
+        <v>11.866666666666667</v>
       </c>
       <c r="O56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4332,78 +4335,78 @@
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.109375" style="61" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="12" max="12" width="4.33203125" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="61" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="D1" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="E1" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="81" t="s">
+      <c r="F1" s="83" t="s">
         <v>100</v>
-      </c>
-      <c r="F1" s="83" t="s">
-        <v>101</v>
       </c>
       <c r="G1" s="83"/>
       <c r="H1" s="83"/>
       <c r="I1" s="83"/>
       <c r="J1" s="74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K1" s="75"/>
       <c r="L1" s="39"/>
       <c r="M1" s="76" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="43.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="78"/>
       <c r="B2" s="80"/>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
       <c r="E2" s="82"/>
       <c r="F2" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="H2" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="I2" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="J2" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="K2" s="42" t="s">
         <v>108</v>
-      </c>
-      <c r="K2" s="42" t="s">
-        <v>109</v>
       </c>
       <c r="L2" s="43"/>
       <c r="M2" s="76"/>
     </row>
-    <row r="3" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="44">
         <v>1</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C3" s="46">
         <v>1</v>
@@ -4439,10 +4442,10 @@
         <v>0</v>
       </c>
       <c r="M3" s="50" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="51">
         <v>2</v>
       </c>
@@ -4486,12 +4489,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="51">
         <v>3</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="56">
         <v>2</v>
@@ -4530,7 +4533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="51">
         <v>4</v>
       </c>
@@ -4574,7 +4577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="44">
         <v>5</v>
       </c>
@@ -4582,7 +4585,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="58">
         <v>5</v>
@@ -4619,15 +4622,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A8" s="51">
         <v>6</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="58">
         <v>6</v>
@@ -4664,15 +4667,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A9" s="51">
         <v>7</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" s="58">
         <v>30</v>
@@ -4709,15 +4712,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" s="51">
         <v>8</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="58">
         <v>32</v>
@@ -4754,15 +4757,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A11" s="44">
         <v>9</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="58">
         <v>7</v>
@@ -4799,15 +4802,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A12" s="51">
         <v>10</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="58">
         <v>15</v>
@@ -4844,15 +4847,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="51">
         <v>11</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" s="58">
         <v>8</v>
@@ -4889,15 +4892,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="51">
         <v>12</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" s="58">
         <v>16</v>
@@ -4934,15 +4937,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A15" s="44">
         <v>13</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D15" s="58">
         <v>9</v>
@@ -4979,15 +4982,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="51">
         <v>14</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D16" s="58">
         <v>18</v>
@@ -5024,15 +5027,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="48" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="48" x14ac:dyDescent="0.25">
       <c r="A17" s="51">
         <v>15</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D17" s="58">
         <v>10</v>
@@ -5069,15 +5072,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="51">
         <v>16</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D18" s="58">
         <v>20</v>
@@ -5114,15 +5117,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A19" s="44">
         <v>17</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D19" s="58">
         <v>11</v>
@@ -5159,15 +5162,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="51">
         <v>18</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D20" s="58">
         <v>22</v>
@@ -5204,15 +5207,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A21" s="51">
         <v>19</v>
       </c>
       <c r="B21" s="62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D21" s="58">
         <v>12</v>
@@ -5249,15 +5252,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="51">
         <v>20</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D22" s="58">
         <v>24</v>
@@ -5294,15 +5297,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A23" s="44">
         <v>21</v>
       </c>
       <c r="B23" s="62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D23" s="58">
         <v>13</v>
@@ -5339,15 +5342,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="51">
         <v>22</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" s="59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D24" s="58">
         <v>26</v>
@@ -5384,15 +5387,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A25" s="51">
         <v>23</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C25" s="59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D25" s="58">
         <v>14</v>
@@ -5429,15 +5432,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="51">
         <v>24</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C26" s="59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D26" s="58">
         <v>28</v>
@@ -5474,15 +5477,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44">
         <v>25</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D27" s="58">
         <v>31</v>
@@ -5519,15 +5522,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="51">
         <v>26</v>
       </c>
       <c r="B28" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D28" s="58">
         <v>16</v>
@@ -5564,15 +5567,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A29" s="51">
         <v>27</v>
       </c>
       <c r="B29" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D29" s="58">
         <v>17</v>
@@ -5606,18 +5609,18 @@
       </c>
       <c r="L29" s="58"/>
       <c r="M29" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="51">
         <v>28</v>
       </c>
       <c r="B30" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C30" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D30" s="58">
         <v>18</v>
@@ -5654,15 +5657,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="60" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="44">
         <v>29</v>
       </c>
       <c r="B31" s="62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C31" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D31" s="58">
         <v>19</v>
@@ -5696,18 +5699,18 @@
       </c>
       <c r="L31" s="58"/>
       <c r="M31" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="51">
         <v>30</v>
       </c>
       <c r="B32" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C32" s="59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D32" s="58">
         <v>20</v>
@@ -5744,15 +5747,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A33" s="51">
         <v>31</v>
       </c>
       <c r="B33" s="62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C33" s="59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D33" s="58">
         <v>21</v>
@@ -5786,18 +5789,18 @@
       </c>
       <c r="L33" s="58"/>
       <c r="M33" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="51">
         <v>32</v>
       </c>
       <c r="B34" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D34" s="58">
         <v>22</v>
@@ -5834,15 +5837,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="48" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="48" x14ac:dyDescent="0.25">
       <c r="A35" s="51">
         <v>33</v>
       </c>
       <c r="B35" s="62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C35" s="59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D35" s="58">
         <v>23</v>
@@ -5876,18 +5879,18 @@
       </c>
       <c r="L35" s="58"/>
       <c r="M35" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="51">
         <v>34</v>
       </c>
       <c r="B36" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C36" s="59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D36" s="58">
         <v>24</v>
@@ -5924,15 +5927,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A37" s="51">
         <v>35</v>
       </c>
       <c r="B37" s="62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C37" s="59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D37" s="58">
         <v>25</v>
@@ -5966,18 +5969,18 @@
       </c>
       <c r="L37" s="58"/>
       <c r="M37" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="51">
         <v>36</v>
       </c>
       <c r="B38" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C38" s="59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D38" s="58">
         <v>26</v>
@@ -6014,15 +6017,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A39" s="51">
         <v>37</v>
       </c>
       <c r="B39" s="62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C39" s="59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D39" s="58">
         <v>27</v>
@@ -6056,18 +6059,18 @@
       </c>
       <c r="L39" s="58"/>
       <c r="M39" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="51">
         <v>38</v>
       </c>
       <c r="B40" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C40" s="59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D40" s="58">
         <v>28</v>
@@ -6104,15 +6107,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A41" s="51">
         <v>39</v>
       </c>
       <c r="B41" s="62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C41" s="59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D41" s="58">
         <v>29</v>
@@ -6146,18 +6149,18 @@
       </c>
       <c r="L41" s="58"/>
       <c r="M41" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="51">
         <v>40</v>
       </c>
       <c r="B42" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C42" s="59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D42" s="58">
         <v>31</v>
@@ -6194,15 +6197,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="51">
         <v>41</v>
       </c>
       <c r="B43" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C43" s="60" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D43" s="58">
         <v>32</v>
@@ -6239,12 +6242,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A44" s="51">
         <v>42</v>
       </c>
       <c r="B44" s="62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C44" s="58">
         <v>31</v>
@@ -6281,15 +6284,15 @@
       </c>
       <c r="L44" s="58"/>
       <c r="M44" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A45" s="51">
         <v>43</v>
       </c>
       <c r="B45" s="62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C45" s="58">
         <v>32</v>
@@ -6326,15 +6329,15 @@
       </c>
       <c r="L45" s="58"/>
       <c r="M45" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A46" s="51">
         <v>44</v>
       </c>
       <c r="B46" s="62" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C46" s="58">
         <v>32</v>
@@ -6371,15 +6374,15 @@
       </c>
       <c r="L46" s="58"/>
       <c r="M46" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A47" s="51">
         <v>45</v>
       </c>
       <c r="B47" s="62" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C47" s="58">
         <v>32</v>
@@ -6416,15 +6419,15 @@
       </c>
       <c r="L47" s="58"/>
       <c r="M47" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A48" s="51">
         <v>46</v>
       </c>
       <c r="B48" s="62" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C48" s="58">
         <v>33</v>
@@ -6464,12 +6467,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="51">
         <v>47</v>
       </c>
       <c r="B49" s="62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C49" s="58">
         <v>33</v>
@@ -6509,12 +6512,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A50" s="51">
         <v>48</v>
       </c>
       <c r="B50" s="62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C50" s="58">
         <v>34</v>
@@ -6554,12 +6557,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="51">
         <v>49</v>
       </c>
       <c r="B51" s="62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C51" s="58">
         <v>34</v>
@@ -6599,12 +6602,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="48" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="51">
         <v>50</v>
       </c>
       <c r="B52" s="62" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C52" s="58">
         <v>35</v>
@@ -6644,12 +6647,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="51">
         <v>51</v>
       </c>
       <c r="B53" s="62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C53" s="58">
         <v>35</v>
@@ -6689,12 +6692,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A54" s="51">
         <v>52</v>
       </c>
       <c r="B54" s="62" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C54" s="58">
         <v>36</v>
@@ -6734,12 +6737,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="51">
         <v>53</v>
       </c>
       <c r="B55" s="62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C55" s="58">
         <v>36</v>
@@ -6779,12 +6782,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A56" s="51">
         <v>54</v>
       </c>
       <c r="B56" s="62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C56" s="58">
         <v>37</v>
@@ -6824,12 +6827,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="51">
         <v>55</v>
       </c>
       <c r="B57" s="62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C57" s="58">
         <v>37</v>
@@ -6869,12 +6872,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="51">
         <v>56</v>
       </c>
       <c r="B58" s="62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C58" s="58">
         <v>38</v>
@@ -6914,12 +6917,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A59" s="51">
         <v>57</v>
       </c>
       <c r="B59" s="62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C59" s="58">
         <v>39</v>
@@ -6959,12 +6962,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="51">
         <v>58</v>
       </c>
       <c r="B60" s="62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" s="58">
         <v>40</v>
@@ -7004,12 +7007,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A61" s="51">
         <v>59</v>
       </c>
       <c r="B61" s="62" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C61" s="58">
         <v>41</v>
@@ -7046,15 +7049,15 @@
       </c>
       <c r="L61" s="58"/>
       <c r="M61" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="51">
         <v>60</v>
       </c>
       <c r="B62" s="62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C62" s="58">
         <v>42</v>
@@ -7094,12 +7097,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A63" s="51">
         <v>61</v>
       </c>
       <c r="B63" s="62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C63" s="58">
         <v>43</v>
@@ -7136,15 +7139,15 @@
       </c>
       <c r="L63" s="58"/>
       <c r="M63" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="51">
         <v>62</v>
       </c>
       <c r="B64" s="62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C64" s="58">
         <v>44</v>
@@ -7184,12 +7187,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="48" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="51">
         <v>63</v>
       </c>
       <c r="B65" s="62" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C65" s="58">
         <v>45</v>
@@ -7226,15 +7229,15 @@
       </c>
       <c r="L65" s="58"/>
       <c r="M65" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="51">
         <v>64</v>
       </c>
       <c r="B66" s="62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C66" s="58">
         <v>46</v>
@@ -7274,12 +7277,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A67" s="51">
         <v>65</v>
       </c>
       <c r="B67" s="62" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C67" s="58">
         <v>47</v>
@@ -7316,15 +7319,15 @@
       </c>
       <c r="L67" s="58"/>
       <c r="M67" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="51">
         <v>66</v>
       </c>
       <c r="B68" s="62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C68" s="58">
         <v>48</v>
@@ -7364,12 +7367,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A69" s="51">
         <v>67</v>
       </c>
       <c r="B69" s="62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C69" s="58">
         <v>49</v>
@@ -7406,15 +7409,15 @@
       </c>
       <c r="L69" s="58"/>
       <c r="M69" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="51">
         <v>68</v>
       </c>
       <c r="B70" s="62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C70" s="58">
         <v>50</v>
@@ -7454,12 +7457,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="51">
         <v>69</v>
       </c>
       <c r="B71" s="62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C71" s="58">
         <v>51</v>
@@ -7499,12 +7502,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A72" s="51">
         <v>70</v>
       </c>
       <c r="B72" s="62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C72" s="58">
         <v>52</v>
@@ -7541,15 +7544,15 @@
       </c>
       <c r="L72" s="58"/>
       <c r="M72" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="51">
         <v>71</v>
       </c>
       <c r="B73" s="62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="58">
         <v>53</v>
@@ -7589,12 +7592,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A74" s="51">
         <v>72</v>
       </c>
       <c r="B74" s="62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C74" s="58">
         <v>54</v>
@@ -7631,15 +7634,15 @@
       </c>
       <c r="L74" s="58"/>
       <c r="M74" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="51">
         <v>73</v>
       </c>
       <c r="B75" s="62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C75" s="58">
         <v>55</v>
@@ -7679,7 +7682,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B76" s="58"/>
       <c r="C76" s="58"/>
       <c r="D76" s="58"/>
@@ -7692,56 +7695,56 @@
       <c r="K76" s="58"/>
       <c r="L76" s="58"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C77" s="58"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C78" s="58"/>
       <c r="G78">
         <f>G75/21</f>
         <v>4.8095238095238093</v>
       </c>
       <c r="H78" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C79" s="58"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C80" s="58"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="58"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="58"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="58"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="58"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="58"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="58"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="58"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="58"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="58"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="58"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="58"/>
     </row>
   </sheetData>
@@ -7801,226 +7804,226 @@
       <selection activeCell="A44" sqref="A1:A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="48" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="48" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="72" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="48" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="48" x14ac:dyDescent="0.25">
       <c r="A4" s="64" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="48" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="36" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A7" s="62" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="48" x14ac:dyDescent="0.3">
-      <c r="A7" s="62" t="s">
+    <row r="8" spans="1:1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A8" s="62" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="48" x14ac:dyDescent="0.3">
-      <c r="A8" s="62" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" ht="48" x14ac:dyDescent="0.25">
       <c r="A9" s="62" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="36" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="36" x14ac:dyDescent="0.25">
       <c r="A10" s="62" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="108" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="108" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="48" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="62" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="84" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="84" x14ac:dyDescent="0.25">
       <c r="A13" s="62" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="60" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="62" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="24" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="24" x14ac:dyDescent="0.25">
       <c r="A15" s="62" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="36" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="36" x14ac:dyDescent="0.25">
       <c r="A16" s="62" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="62" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="60" x14ac:dyDescent="0.3">
-      <c r="A17" s="62" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="48" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="48" x14ac:dyDescent="0.25">
       <c r="A18" s="62" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="108" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="108" x14ac:dyDescent="0.25">
       <c r="A19" s="62" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="48" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="62" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="84" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="84" x14ac:dyDescent="0.25">
       <c r="A21" s="62" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="60" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="62" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="24" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="24" x14ac:dyDescent="0.25">
       <c r="A23" s="62" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="36" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="36" x14ac:dyDescent="0.25">
       <c r="A24" s="62" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="62" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="60" x14ac:dyDescent="0.3">
-      <c r="A25" s="62" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="60" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="62" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A27" s="62" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="48" x14ac:dyDescent="0.3">
-      <c r="A27" s="62" t="s">
+    <row r="28" spans="1:1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A28" s="62" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="48" x14ac:dyDescent="0.3">
-      <c r="A28" s="62" t="s">
+    <row r="29" spans="1:1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A29" s="62" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="36" x14ac:dyDescent="0.3">
-      <c r="A29" s="62" t="s">
+    <row r="30" spans="1:1" ht="84" x14ac:dyDescent="0.25">
+      <c r="A30" s="62" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="84" x14ac:dyDescent="0.3">
-      <c r="A30" s="62" t="s">
+    <row r="31" spans="1:1" ht="108" x14ac:dyDescent="0.25">
+      <c r="A31" s="62" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="108" x14ac:dyDescent="0.3">
-      <c r="A31" s="62" t="s">
+    <row r="32" spans="1:1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A32" s="62" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="48" x14ac:dyDescent="0.3">
-      <c r="A32" s="62" t="s">
+    <row r="33" spans="1:1" ht="84" x14ac:dyDescent="0.25">
+      <c r="A33" s="62" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="84" x14ac:dyDescent="0.3">
-      <c r="A33" s="62" t="s">
+    <row r="34" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="62" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A35" s="62" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="84" x14ac:dyDescent="0.25">
+      <c r="A36" s="62" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="108" x14ac:dyDescent="0.25">
+      <c r="A37" s="62" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A38" s="62" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="84" x14ac:dyDescent="0.25">
+      <c r="A39" s="62" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A40" s="62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A41" s="62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A42" s="62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A43" s="62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A44" s="62" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="60" x14ac:dyDescent="0.3">
-      <c r="A34" s="62" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="36" x14ac:dyDescent="0.3">
-      <c r="A35" s="62" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="84" x14ac:dyDescent="0.3">
-      <c r="A36" s="62" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="108" x14ac:dyDescent="0.3">
-      <c r="A37" s="62" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="48" x14ac:dyDescent="0.3">
-      <c r="A38" s="62" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="84" x14ac:dyDescent="0.3">
-      <c r="A39" s="62" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="36" x14ac:dyDescent="0.3">
-      <c r="A40" s="62" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="36" x14ac:dyDescent="0.3">
-      <c r="A41" s="62" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="36" x14ac:dyDescent="0.3">
-      <c r="A43" s="62" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="36" x14ac:dyDescent="0.3">
-      <c r="A44" s="62" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
